--- a/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/capital_call/CC_TA_OA_TEMPLATE.xlsx
+++ b/nicnbk-data/nicnbk-data-service-impl/src/main/resources/export_template/capital_call/CC_TA_OA_TEMPLATE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\5. Проекты\НИК - Автоматизация отчетности УАО\IT CC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magzumov\IdeaProjects\unic\nicnbk-data\nicnbk-data-service-impl\src\main\resources\export_template\capital_call\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                       Date                    </t>
-  </si>
-  <si>
-    <t>Additional subscription</t>
   </si>
   <si>
     <t>Cash disbursement</t>
@@ -145,21 +142,6 @@
     <t> </t>
   </si>
   <si>
-    <t>Омаров Т.М.__________________</t>
-  </si>
-  <si>
-    <t>Исп.: Илимесова Л.К., тел.: 244 94 04 (154)</t>
-  </si>
-  <si>
-    <t>Cаенко А.И. ____________________</t>
-  </si>
-  <si>
-    <t>Akylzhan Baimagambetov-Director</t>
-  </si>
-  <si>
-    <t>Рысбеков С.Д.________________</t>
-  </si>
-  <si>
     <t>National Investment Corporation of National Bank of Kazakhstan</t>
   </si>
   <si>
@@ -173,6 +155,24 @@
   </si>
   <si>
     <t>Funds transfer from Transfer Agency to Operating account</t>
+  </si>
+  <si>
+    <t>&lt;investment_category&gt;</t>
+  </si>
+  <si>
+    <t>&lt;DIRECTORNAME&gt;-Director</t>
+  </si>
+  <si>
+    <t>&lt;viza_1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;viza_2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;doer&gt;</t>
+  </si>
+  <si>
+    <t>&lt;viza_3&gt;</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -427,25 +427,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -754,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A67" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -772,16 +776,16 @@
     <row r="1" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="23"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="24"/>
     </row>
     <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21"/>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="33"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -789,8 +793,8 @@
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>26</v>
+      <c r="D4" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="20"/>
@@ -801,7 +805,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -810,8 +814,8 @@
       <c r="C6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="34" t="s">
-        <v>40</v>
+      <c r="D6" s="31" t="s">
+        <v>34</v>
       </c>
       <c r="E6" s="4"/>
     </row>
@@ -821,7 +825,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E7" s="4"/>
     </row>
@@ -837,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -846,8 +850,8 @@
       <c r="C10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="35" t="s">
-        <v>41</v>
+      <c r="D10" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="E10" s="4"/>
     </row>
@@ -886,8 +890,8 @@
       <c r="C14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="36" t="s">
-        <v>42</v>
+      <c r="D14" s="33" t="s">
+        <v>36</v>
       </c>
       <c r="E14" s="4"/>
     </row>
@@ -905,7 +909,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="4"/>
     </row>
@@ -915,7 +919,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="4"/>
     </row>
@@ -957,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="4"/>
     </row>
@@ -1027,18 +1031,18 @@
     </row>
     <row r="31" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
-      <c r="C31" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>40</v>
+      <c r="C31" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>25</v>
@@ -1053,27 +1057,27 @@
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="28" t="s">
-        <v>38</v>
+      <c r="C82" s="35" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="28" t="s">
-        <v>34</v>
+      <c r="C83" s="35" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="28" t="s">
-        <v>36</v>
+      <c r="C84" s="35" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C85" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.25">
@@ -1081,22 +1085,22 @@
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C87" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C88" s="28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="C89" s="28" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="35" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C90" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
